--- a/ConfigFiles/H93_LDCU_V1.4_0327.xlsx
+++ b/ConfigFiles/H93_LDCU_V1.4_0327.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\22684_H93_LDCU_EOL_TESTER\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86836DDA-3E0C-4D87-9BE7-ECF8D63DD3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD0295-EC08-4603-B847-CC14A9EB8E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="769" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All PIN" sheetId="2" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10681" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10681" uniqueCount="1582">
   <si>
     <t>PIN</t>
   </si>
@@ -3982,16 +3982,10 @@
     <t>CH_H_75</t>
   </si>
   <si>
-    <t>Slot2，PIN36</t>
-  </si>
-  <si>
     <t>00 00 00 08 00 00 00 00 00 00 00 00</t>
   </si>
   <si>
     <t>CH_H_76</t>
-  </si>
-  <si>
-    <t>Slot2，PIN37</t>
   </si>
   <si>
     <t>00 00 00 10 00 00 00 00 00 00 00 00</t>
@@ -6459,6 +6453,15 @@
   </si>
   <si>
     <t>无变化</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
   </si>
 </sst>
 </file>
@@ -6591,10 +6594,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -7354,6 +7356,18 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7404,18 +7418,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8031,7 +8033,7 @@
       <c r="D4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="145" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -8093,7 +8095,7 @@
       <c r="D5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="144" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -11677,31 +11679,31 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A63" s="136" t="s">
+      <c r="A63" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="140" t="s">
+      <c r="C63" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="138" t="s">
+      <c r="D63" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="141" t="s">
+      <c r="E63" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="138" t="s">
+      <c r="F63" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="G63" s="141" t="s">
+      <c r="G63" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="139" t="s">
+      <c r="H63" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I63" s="141" t="s">
+      <c r="I63" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J63" s="121" t="s">
@@ -11739,31 +11741,31 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A64" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="140" t="s">
+      <c r="A64" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J64" s="121" t="s">
@@ -12979,31 +12981,31 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="B84" s="138" t="s">
+      <c r="B84" s="142" t="s">
         <v>284</v>
       </c>
-      <c r="C84" s="140" t="s">
+      <c r="C84" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="138" t="s">
+      <c r="D84" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E84" s="141" t="s">
+      <c r="E84" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="138" t="s">
+      <c r="F84" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G84" s="141" t="s">
+      <c r="G84" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H84" s="139" t="s">
+      <c r="H84" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="I84" s="141" t="s">
+      <c r="I84" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J84" s="121" t="s">
@@ -13041,31 +13043,31 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A85" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I85" s="140" t="s">
+      <c r="A85" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J85" s="121" t="s">
@@ -13103,31 +13105,31 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A86" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I86" s="140" t="s">
+      <c r="A86" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J86" s="121" t="s">
@@ -13165,31 +13167,31 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A87" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I87" s="140" t="s">
+      <c r="A87" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J87" s="121" t="s">
@@ -13537,31 +13539,31 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="140" t="s">
         <v>304</v>
       </c>
-      <c r="B93" s="138" t="s">
+      <c r="B93" s="142" t="s">
         <v>305</v>
       </c>
-      <c r="C93" s="140" t="s">
+      <c r="C93" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="138" t="s">
+      <c r="D93" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E93" s="141" t="s">
+      <c r="E93" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="138" t="s">
+      <c r="F93" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G93" s="141" t="s">
+      <c r="G93" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H93" s="139" t="s">
+      <c r="H93" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I93" s="141" t="s">
+      <c r="I93" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J93" s="121" t="s">
@@ -13599,31 +13601,31 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A94" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F94" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="140" t="s">
+      <c r="A94" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J94" s="121" t="s">
@@ -13661,31 +13663,31 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="140" t="s">
         <v>306</v>
       </c>
-      <c r="B95" s="138" t="s">
+      <c r="B95" s="142" t="s">
         <v>307</v>
       </c>
-      <c r="C95" s="140" t="s">
+      <c r="C95" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="138" t="s">
+      <c r="D95" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E95" s="141" t="s">
+      <c r="E95" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="138" t="s">
+      <c r="F95" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G95" s="141" t="s">
+      <c r="G95" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H95" s="139" t="s">
+      <c r="H95" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I95" s="141" t="s">
+      <c r="I95" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J95" s="121" t="s">
@@ -13723,31 +13725,31 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A96" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F96" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="140" t="s">
+      <c r="A96" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J96" s="121" t="s">
@@ -13785,31 +13787,31 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A97" s="136" t="s">
+      <c r="A97" s="140" t="s">
         <v>308</v>
       </c>
-      <c r="B97" s="138" t="s">
+      <c r="B97" s="142" t="s">
         <v>309</v>
       </c>
-      <c r="C97" s="140" t="s">
+      <c r="C97" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="138" t="s">
+      <c r="D97" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E97" s="141" t="s">
+      <c r="E97" s="145" t="s">
         <v>310</v>
       </c>
-      <c r="F97" s="138" t="s">
+      <c r="F97" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="G97" s="141" t="s">
+      <c r="G97" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H97" s="139" t="s">
+      <c r="H97" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I97" s="141" t="s">
+      <c r="I97" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J97" s="121" t="s">
@@ -13847,31 +13849,31 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A98" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G98" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="140" t="s">
+      <c r="A98" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J98" s="121" t="s">
@@ -13971,31 +13973,31 @@
       </c>
     </row>
     <row r="100" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A100" s="136" t="s">
+      <c r="A100" s="140" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="138" t="s">
+      <c r="B100" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="140" t="s">
+      <c r="C100" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="138" t="s">
+      <c r="D100" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="141" t="s">
+      <c r="E100" s="145" t="s">
         <v>316</v>
       </c>
-      <c r="F100" s="138" t="s">
+      <c r="F100" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="G100" s="141" t="s">
+      <c r="G100" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H100" s="139" t="s">
+      <c r="H100" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I100" s="141" t="s">
+      <c r="I100" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J100" s="121" t="s">
@@ -14033,31 +14035,31 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A101" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F101" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="140" t="s">
+      <c r="A101" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J101" s="121" t="s">
@@ -14095,31 +14097,31 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A102" s="136" t="s">
+      <c r="A102" s="140" t="s">
         <v>317</v>
       </c>
-      <c r="B102" s="138" t="s">
+      <c r="B102" s="142" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="140" t="s">
+      <c r="C102" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="138" t="s">
+      <c r="D102" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="141" t="s">
+      <c r="E102" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F102" s="138" t="s">
+      <c r="F102" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G102" s="141" t="s">
+      <c r="G102" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H102" s="139" t="s">
+      <c r="H102" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="I102" s="141" t="s">
+      <c r="I102" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J102" s="121" t="s">
@@ -14157,31 +14159,31 @@
       </c>
     </row>
     <row r="103" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A103" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H103" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="140" t="s">
+      <c r="A103" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J103" s="121" t="s">
@@ -14219,31 +14221,31 @@
       </c>
     </row>
     <row r="104" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A104" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F104" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H104" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" s="140" t="s">
+      <c r="A104" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J104" s="121" t="s">
@@ -14281,31 +14283,31 @@
       </c>
     </row>
     <row r="105" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A105" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B105" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F105" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H105" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I105" s="140" t="s">
+      <c r="A105" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J105" s="121" t="s">
@@ -15164,7 +15166,7 @@
       <c r="E119" s="120" t="s">
         <v>359</v>
       </c>
-      <c r="F119" s="138" t="s">
+      <c r="F119" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G119" s="120" t="s">
@@ -15173,7 +15175,7 @@
       <c r="H119" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="I119" s="141" t="s">
+      <c r="I119" s="145" t="s">
         <v>362</v>
       </c>
       <c r="J119" s="121" t="s">
@@ -15226,7 +15228,7 @@
       <c r="E120" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="F120" s="139" t="s">
+      <c r="F120" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G120" s="120" t="s">
@@ -15235,7 +15237,7 @@
       <c r="H120" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="I120" s="140" t="s">
+      <c r="I120" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J120" s="121" t="s">
@@ -15350,16 +15352,16 @@
       <c r="E122" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="138" t="s">
+      <c r="F122" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G122" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H122" s="139" t="s">
+      <c r="H122" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I122" s="141" t="s">
+      <c r="I122" s="145" t="s">
         <v>371</v>
       </c>
       <c r="J122" s="121" t="s">
@@ -15412,16 +15414,16 @@
       <c r="E123" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F123" s="139" t="s">
+      <c r="F123" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G123" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H123" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I123" s="140" t="s">
+      <c r="H123" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J123" s="121" t="s">
@@ -15536,16 +15538,16 @@
       <c r="E125" s="120" t="s">
         <v>379</v>
       </c>
-      <c r="F125" s="138" t="s">
+      <c r="F125" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G125" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H125" s="139" t="s">
+      <c r="H125" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I125" s="141" t="s">
+      <c r="I125" s="145" t="s">
         <v>380</v>
       </c>
       <c r="J125" s="121" t="s">
@@ -15598,16 +15600,16 @@
       <c r="E126" s="120" t="s">
         <v>383</v>
       </c>
-      <c r="F126" s="139" t="s">
+      <c r="F126" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G126" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H126" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I126" s="140" t="s">
+      <c r="H126" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J126" s="121" t="s">
@@ -15722,16 +15724,16 @@
       <c r="E128" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F128" s="138" t="s">
+      <c r="F128" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G128" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H128" s="139" t="s">
+      <c r="H128" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I128" s="141" t="s">
+      <c r="I128" s="145" t="s">
         <v>371</v>
       </c>
       <c r="J128" s="121" t="s">
@@ -15784,16 +15786,16 @@
       <c r="E129" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F129" s="139" t="s">
+      <c r="F129" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G129" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H129" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I129" s="140" t="s">
+      <c r="H129" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J129" s="121" t="s">
@@ -16218,16 +16220,16 @@
       <c r="E136" s="120" t="s">
         <v>406</v>
       </c>
-      <c r="F136" s="138" t="s">
+      <c r="F136" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G136" s="120" t="s">
         <v>407</v>
       </c>
-      <c r="H136" s="139" t="s">
+      <c r="H136" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="I136" s="141" t="s">
+      <c r="I136" s="145" t="s">
         <v>409</v>
       </c>
       <c r="J136" s="121" t="s">
@@ -16280,16 +16282,16 @@
       <c r="E137" s="120" t="s">
         <v>412</v>
       </c>
-      <c r="F137" s="139" t="s">
+      <c r="F137" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G137" s="120" t="s">
         <v>413</v>
       </c>
-      <c r="H137" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I137" s="140" t="s">
+      <c r="H137" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J137" s="121" t="s">
@@ -16401,19 +16403,19 @@
       <c r="D139" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E139" s="141" t="s">
+      <c r="E139" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F139" s="138" t="s">
+      <c r="F139" s="142" t="s">
         <v>417</v>
       </c>
       <c r="G139" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H139" s="139" t="s">
+      <c r="H139" s="143" t="s">
         <v>418</v>
       </c>
-      <c r="I139" s="141" t="s">
+      <c r="I139" s="145" t="s">
         <v>419</v>
       </c>
       <c r="J139" s="121" t="s">
@@ -16463,19 +16465,19 @@
       <c r="D140" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E140" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F140" s="139" t="s">
+      <c r="E140" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G140" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H140" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I140" s="140" t="s">
+      <c r="H140" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J140" s="121" t="s">
@@ -16528,16 +16530,16 @@
       <c r="E141" s="120" t="s">
         <v>425</v>
       </c>
-      <c r="F141" s="138" t="s">
+      <c r="F141" s="142" t="s">
         <v>417</v>
       </c>
       <c r="G141" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H141" s="139" t="s">
+      <c r="H141" s="143" t="s">
         <v>418</v>
       </c>
-      <c r="I141" s="141" t="s">
+      <c r="I141" s="145" t="s">
         <v>362</v>
       </c>
       <c r="J141" s="121" t="s">
@@ -16590,16 +16592,16 @@
       <c r="E142" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="F142" s="139" t="s">
+      <c r="F142" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G142" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H142" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I142" s="140" t="s">
+      <c r="H142" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J142" s="121" t="s">
@@ -16823,31 +16825,31 @@
       </c>
     </row>
     <row r="146" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="B146" s="138" t="s">
+      <c r="B146" s="142" t="s">
         <v>434</v>
       </c>
-      <c r="C146" s="140" t="s">
+      <c r="C146" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D146" s="138" t="s">
+      <c r="D146" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E146" s="141" t="s">
+      <c r="E146" s="145" t="s">
         <v>435</v>
       </c>
-      <c r="F146" s="138" t="s">
+      <c r="F146" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G146" s="141" t="s">
+      <c r="G146" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H146" s="139" t="s">
+      <c r="H146" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I146" s="141" t="s">
+      <c r="I146" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J146" s="121" t="s">
@@ -16885,31 +16887,31 @@
       </c>
     </row>
     <row r="147" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A147" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E147" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F147" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G147" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I147" s="140" t="s">
+      <c r="A147" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I147" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J147" s="121" t="s">
@@ -16947,31 +16949,31 @@
       </c>
     </row>
     <row r="148" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A148" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C148" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F148" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I148" s="140" t="s">
+      <c r="A148" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I148" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J148" s="121" t="s">
@@ -17009,31 +17011,31 @@
       </c>
     </row>
     <row r="149" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A149" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G149" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I149" s="140" t="s">
+      <c r="A149" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J149" s="121" t="s">
@@ -17071,31 +17073,31 @@
       </c>
     </row>
     <row r="150" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A150" s="136" t="s">
+      <c r="A150" s="140" t="s">
         <v>439</v>
       </c>
-      <c r="B150" s="138" t="s">
+      <c r="B150" s="142" t="s">
         <v>440</v>
       </c>
-      <c r="C150" s="140" t="s">
+      <c r="C150" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="138" t="s">
+      <c r="D150" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E150" s="141" t="s">
+      <c r="E150" s="145" t="s">
         <v>441</v>
       </c>
-      <c r="F150" s="138" t="s">
+      <c r="F150" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G150" s="141" t="s">
+      <c r="G150" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H150" s="139" t="s">
+      <c r="H150" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I150" s="141" t="s">
+      <c r="I150" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J150" s="121" t="s">
@@ -17133,29 +17135,29 @@
       </c>
     </row>
     <row r="151" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A151" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D151" s="138"/>
-      <c r="E151" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F151" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G151" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H151" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I151" s="140" t="s">
+      <c r="A151" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="142"/>
+      <c r="E151" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J151" s="121" t="s">
@@ -17193,29 +17195,29 @@
       </c>
     </row>
     <row r="152" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A152" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B152" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D152" s="138"/>
-      <c r="E152" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H152" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I152" s="140" t="s">
+      <c r="A152" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="142"/>
+      <c r="E152" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J152" s="121" t="s">
@@ -17253,29 +17255,29 @@
       </c>
     </row>
     <row r="153" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A153" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D153" s="138"/>
-      <c r="E153" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G153" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H153" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I153" s="140" t="s">
+      <c r="A153" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" s="142"/>
+      <c r="E153" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I153" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J153" s="121" t="s">
@@ -17313,31 +17315,31 @@
       </c>
     </row>
     <row r="154" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A154" s="136" t="s">
+      <c r="A154" s="140" t="s">
         <v>443</v>
       </c>
-      <c r="B154" s="138" t="s">
+      <c r="B154" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="C154" s="140" t="s">
+      <c r="C154" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="138" t="s">
+      <c r="D154" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E154" s="141" t="s">
+      <c r="E154" s="145" t="s">
         <v>445</v>
       </c>
-      <c r="F154" s="138" t="s">
+      <c r="F154" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G154" s="141" t="s">
+      <c r="G154" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H154" s="139" t="s">
+      <c r="H154" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I154" s="141" t="s">
+      <c r="I154" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J154" s="121" t="s">
@@ -17375,29 +17377,29 @@
       </c>
     </row>
     <row r="155" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A155" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B155" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D155" s="138"/>
-      <c r="E155" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F155" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G155" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H155" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I155" s="140" t="s">
+      <c r="A155" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="142"/>
+      <c r="E155" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I155" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J155" s="121" t="s">
@@ -17435,29 +17437,29 @@
       </c>
     </row>
     <row r="156" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A156" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B156" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D156" s="138"/>
-      <c r="E156" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F156" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H156" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I156" s="140" t="s">
+      <c r="A156" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="142"/>
+      <c r="E156" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I156" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J156" s="121" t="s">
@@ -17495,29 +17497,29 @@
       </c>
     </row>
     <row r="157" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A157" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B157" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D157" s="138"/>
-      <c r="E157" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H157" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I157" s="140" t="s">
+      <c r="A157" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="142"/>
+      <c r="E157" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I157" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J157" s="121" t="s">
@@ -17555,31 +17557,31 @@
       </c>
     </row>
     <row r="158" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A158" s="136" t="s">
+      <c r="A158" s="140" t="s">
         <v>446</v>
       </c>
-      <c r="B158" s="138" t="s">
+      <c r="B158" s="142" t="s">
         <v>447</v>
       </c>
-      <c r="C158" s="140" t="s">
+      <c r="C158" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D158" s="138" t="s">
+      <c r="D158" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E158" s="141" t="s">
+      <c r="E158" s="145" t="s">
         <v>448</v>
       </c>
-      <c r="F158" s="138" t="s">
+      <c r="F158" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G158" s="141" t="s">
+      <c r="G158" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H158" s="139" t="s">
+      <c r="H158" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I158" s="141" t="s">
+      <c r="I158" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J158" s="121" t="s">
@@ -17617,29 +17619,29 @@
       </c>
     </row>
     <row r="159" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A159" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B159" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D159" s="138"/>
-      <c r="E159" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F159" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G159" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H159" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I159" s="140" t="s">
+      <c r="A159" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="142"/>
+      <c r="E159" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I159" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J159" s="121" t="s">
@@ -17677,29 +17679,29 @@
       </c>
     </row>
     <row r="160" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A160" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B160" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D160" s="138"/>
-      <c r="E160" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H160" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I160" s="140" t="s">
+      <c r="A160" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="142"/>
+      <c r="E160" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J160" s="121" t="s">
@@ -17737,29 +17739,29 @@
       </c>
     </row>
     <row r="161" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A161" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161" s="138"/>
-      <c r="E161" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G161" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H161" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I161" s="140" t="s">
+      <c r="A161" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" s="142"/>
+      <c r="E161" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I161" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J161" s="121" t="s">
@@ -17797,31 +17799,31 @@
       </c>
     </row>
     <row r="162" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A162" s="136" t="s">
+      <c r="A162" s="140" t="s">
         <v>449</v>
       </c>
-      <c r="B162" s="138" t="s">
+      <c r="B162" s="142" t="s">
         <v>450</v>
       </c>
-      <c r="C162" s="140" t="s">
+      <c r="C162" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="138" t="s">
+      <c r="D162" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E162" s="141" t="s">
+      <c r="E162" s="145" t="s">
         <v>451</v>
       </c>
-      <c r="F162" s="138" t="s">
+      <c r="F162" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G162" s="141" t="s">
+      <c r="G162" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H162" s="139" t="s">
+      <c r="H162" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I162" s="141" t="s">
+      <c r="I162" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J162" s="121" t="s">
@@ -17859,29 +17861,29 @@
       </c>
     </row>
     <row r="163" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A163" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B163" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C163" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D163" s="138"/>
-      <c r="E163" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G163" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H163" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I163" s="140" t="s">
+      <c r="A163" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="142"/>
+      <c r="E163" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G163" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J163" s="121" t="s">
@@ -17919,29 +17921,29 @@
       </c>
     </row>
     <row r="164" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A164" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B164" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D164" s="138"/>
-      <c r="E164" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F164" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H164" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I164" s="140" t="s">
+      <c r="A164" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="142"/>
+      <c r="E164" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G164" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J164" s="121" t="s">
@@ -17979,29 +17981,29 @@
       </c>
     </row>
     <row r="165" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A165" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B165" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165" s="138"/>
-      <c r="E165" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F165" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G165" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H165" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I165" s="140" t="s">
+      <c r="A165" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="142"/>
+      <c r="E165" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J165" s="121" t="s">
@@ -18039,31 +18041,31 @@
       </c>
     </row>
     <row r="166" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A166" s="136" t="s">
+      <c r="A166" s="140" t="s">
         <v>452</v>
       </c>
-      <c r="B166" s="138" t="s">
+      <c r="B166" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="C166" s="140" t="s">
+      <c r="C166" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D166" s="138" t="s">
+      <c r="D166" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E166" s="141" t="s">
+      <c r="E166" s="145" t="s">
         <v>454</v>
       </c>
-      <c r="F166" s="138" t="s">
+      <c r="F166" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G166" s="141" t="s">
+      <c r="G166" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H166" s="139" t="s">
+      <c r="H166" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I166" s="141" t="s">
+      <c r="I166" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J166" s="121" t="s">
@@ -18101,29 +18103,29 @@
       </c>
     </row>
     <row r="167" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A167" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D167" s="138"/>
-      <c r="E167" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G167" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H167" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I167" s="140" t="s">
+      <c r="A167" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="142"/>
+      <c r="E167" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J167" s="121" t="s">
@@ -18161,29 +18163,29 @@
       </c>
     </row>
     <row r="168" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A168" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C168" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D168" s="138"/>
-      <c r="E168" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F168" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H168" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I168" s="140" t="s">
+      <c r="A168" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="142"/>
+      <c r="E168" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I168" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J168" s="121" t="s">
@@ -18221,29 +18223,29 @@
       </c>
     </row>
     <row r="169" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A169" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B169" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D169" s="138"/>
-      <c r="E169" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F169" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G169" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H169" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I169" s="140" t="s">
+      <c r="A169" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="142"/>
+      <c r="E169" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J169" s="121" t="s">
@@ -18293,7 +18295,7 @@
       <c r="D170" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="141" t="s">
+      <c r="E170" s="145" t="s">
         <v>43</v>
       </c>
       <c r="F170" s="19" t="s">
@@ -18355,7 +18357,7 @@
       <c r="D171" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E171" s="140" t="s">
+      <c r="E171" s="144" t="s">
         <v>34</v>
       </c>
       <c r="F171" s="19" t="s">
@@ -18479,7 +18481,7 @@
       <c r="D173" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E173" s="141" t="s">
+      <c r="E173" s="145" t="s">
         <v>469</v>
       </c>
       <c r="F173" s="19" t="s">
@@ -18541,7 +18543,7 @@
       <c r="D174" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E174" s="140" t="s">
+      <c r="E174" s="144" t="s">
         <v>34</v>
       </c>
       <c r="F174" s="19" t="s">
@@ -20218,16 +20220,16 @@
       <c r="E201" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F201" s="138" t="s">
+      <c r="F201" s="142" t="s">
         <v>542</v>
       </c>
       <c r="G201" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H201" s="139" t="s">
+      <c r="H201" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="I201" s="141" t="s">
+      <c r="I201" s="145" t="s">
         <v>371</v>
       </c>
       <c r="J201" s="121" t="s">
@@ -20280,16 +20282,16 @@
       <c r="E202" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F202" s="139" t="s">
+      <c r="F202" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G202" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H202" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I202" s="140" t="s">
+      <c r="H202" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I202" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J202" s="121" t="s">
@@ -20575,31 +20577,31 @@
       </c>
     </row>
     <row r="207" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A207" s="136" t="s">
+      <c r="A207" s="140" t="s">
         <v>555</v>
       </c>
-      <c r="B207" s="138" t="s">
+      <c r="B207" s="142" t="s">
         <v>556</v>
       </c>
-      <c r="C207" s="140" t="s">
+      <c r="C207" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D207" s="138" t="s">
+      <c r="D207" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="141" t="s">
+      <c r="E207" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F207" s="138" t="s">
+      <c r="F207" s="142" t="s">
         <v>557</v>
       </c>
-      <c r="G207" s="141" t="s">
+      <c r="G207" s="145" t="s">
         <v>558</v>
       </c>
-      <c r="H207" s="139" t="s">
+      <c r="H207" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I207" s="141" t="s">
+      <c r="I207" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J207" s="121" t="s">
@@ -20637,31 +20639,31 @@
       </c>
     </row>
     <row r="208" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A208" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B208" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D208" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E208" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F208" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I208" s="140" t="s">
+      <c r="A208" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I208" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J208" s="121" t="s">
@@ -20699,31 +20701,31 @@
       </c>
     </row>
     <row r="209" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A209" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B209" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C209" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D209" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E209" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F209" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G209" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H209" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I209" s="140" t="s">
+      <c r="A209" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C209" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G209" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H209" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I209" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J209" s="121" t="s">
@@ -20761,31 +20763,31 @@
       </c>
     </row>
     <row r="210" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A210" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B210" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C210" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D210" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E210" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F210" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H210" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I210" s="140" t="s">
+      <c r="A210" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F210" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H210" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J210" s="121" t="s">
@@ -21579,7 +21581,7 @@
       <c r="D223" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E223" s="141" t="s">
+      <c r="E223" s="145" t="s">
         <v>43</v>
       </c>
       <c r="F223" s="19" t="s">
@@ -21641,7 +21643,7 @@
       <c r="D224" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E224" s="140" t="s">
+      <c r="E224" s="144" t="s">
         <v>34</v>
       </c>
       <c r="F224" s="19" t="s">
@@ -21877,31 +21879,31 @@
       </c>
     </row>
     <row r="228" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A228" s="136" t="s">
+      <c r="A228" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="B228" s="138" t="s">
+      <c r="B228" s="142" t="s">
         <v>603</v>
       </c>
-      <c r="C228" s="140" t="s">
+      <c r="C228" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D228" s="138" t="s">
+      <c r="D228" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E228" s="141" t="s">
+      <c r="E228" s="145" t="s">
         <v>604</v>
       </c>
-      <c r="F228" s="138" t="s">
+      <c r="F228" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G228" s="141" t="s">
+      <c r="G228" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="H228" s="139" t="s">
+      <c r="H228" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I228" s="141" t="s">
+      <c r="I228" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J228" s="121" t="s">
@@ -21939,29 +21941,29 @@
       </c>
     </row>
     <row r="229" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A229" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B229" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C229" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D229" s="138"/>
-      <c r="E229" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F229" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G229" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H229" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I229" s="140" t="s">
+      <c r="A229" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B229" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C229" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" s="142"/>
+      <c r="E229" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G229" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H229" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I229" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J229" s="121" t="s">
@@ -21999,29 +22001,29 @@
       </c>
     </row>
     <row r="230" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A230" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B230" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C230" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D230" s="138"/>
-      <c r="E230" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F230" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G230" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H230" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I230" s="140" t="s">
+      <c r="A230" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B230" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C230" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D230" s="142"/>
+      <c r="E230" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F230" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H230" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I230" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J230" s="121" t="s">
@@ -22059,29 +22061,29 @@
       </c>
     </row>
     <row r="231" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A231" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B231" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C231" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D231" s="138"/>
-      <c r="E231" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G231" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H231" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I231" s="140" t="s">
+      <c r="A231" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B231" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" s="142"/>
+      <c r="E231" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F231" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G231" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H231" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I231" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J231" s="121" t="s">
@@ -22243,31 +22245,31 @@
       </c>
     </row>
     <row r="234" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A234" s="136" t="s">
+      <c r="A234" s="140" t="s">
         <v>611</v>
       </c>
-      <c r="B234" s="138" t="s">
+      <c r="B234" s="142" t="s">
         <v>612</v>
       </c>
-      <c r="C234" s="140" t="s">
+      <c r="C234" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D234" s="138" t="s">
+      <c r="D234" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E234" s="141" t="s">
+      <c r="E234" s="145" t="s">
         <v>613</v>
       </c>
-      <c r="F234" s="138" t="s">
+      <c r="F234" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G234" s="141" t="s">
+      <c r="G234" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="H234" s="139" t="s">
+      <c r="H234" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I234" s="141" t="s">
+      <c r="I234" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J234" s="121" t="s">
@@ -22305,29 +22307,29 @@
       </c>
     </row>
     <row r="235" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A235" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B235" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C235" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D235" s="138"/>
-      <c r="E235" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F235" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G235" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H235" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I235" s="140" t="s">
+      <c r="A235" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B235" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C235" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" s="142"/>
+      <c r="E235" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H235" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J235" s="121" t="s">
@@ -22365,29 +22367,29 @@
       </c>
     </row>
     <row r="236" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A236" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B236" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C236" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D236" s="138"/>
-      <c r="E236" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F236" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G236" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H236" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I236" s="140" t="s">
+      <c r="A236" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B236" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D236" s="142"/>
+      <c r="E236" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G236" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H236" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I236" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J236" s="121" t="s">
@@ -22425,29 +22427,29 @@
       </c>
     </row>
     <row r="237" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A237" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B237" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C237" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D237" s="138"/>
-      <c r="E237" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F237" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G237" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H237" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I237" s="140" t="s">
+      <c r="A237" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B237" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="142"/>
+      <c r="E237" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F237" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G237" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H237" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I237" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J237" s="121" t="s">
@@ -22485,31 +22487,31 @@
       </c>
     </row>
     <row r="238" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A238" s="136" t="s">
+      <c r="A238" s="140" t="s">
         <v>614</v>
       </c>
-      <c r="B238" s="138" t="s">
+      <c r="B238" s="142" t="s">
         <v>615</v>
       </c>
-      <c r="C238" s="140" t="s">
+      <c r="C238" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D238" s="138" t="s">
+      <c r="D238" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E238" s="141" t="s">
+      <c r="E238" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F238" s="138" t="s">
+      <c r="F238" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G238" s="141" t="s">
+      <c r="G238" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="H238" s="139" t="s">
+      <c r="H238" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I238" s="141" t="s">
+      <c r="I238" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J238" s="121" t="s">
@@ -22547,29 +22549,29 @@
       </c>
     </row>
     <row r="239" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A239" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B239" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C239" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D239" s="138"/>
-      <c r="E239" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F239" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G239" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H239" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I239" s="140" t="s">
+      <c r="A239" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C239" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="142"/>
+      <c r="E239" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G239" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H239" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I239" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J239" s="121" t="s">
@@ -22607,29 +22609,29 @@
       </c>
     </row>
     <row r="240" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A240" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B240" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C240" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D240" s="138"/>
-      <c r="E240" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F240" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H240" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I240" s="140" t="s">
+      <c r="A240" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B240" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C240" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240" s="142"/>
+      <c r="E240" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G240" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H240" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I240" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J240" s="121" t="s">
@@ -22667,29 +22669,29 @@
       </c>
     </row>
     <row r="241" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A241" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B241" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C241" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D241" s="138"/>
-      <c r="E241" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F241" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G241" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H241" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I241" s="140" t="s">
+      <c r="A241" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B241" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C241" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="142"/>
+      <c r="E241" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H241" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I241" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J241" s="121" t="s">
@@ -23223,31 +23225,31 @@
       </c>
     </row>
     <row r="250" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A250" s="136" t="s">
+      <c r="A250" s="140" t="s">
         <v>628</v>
       </c>
-      <c r="B250" s="138" t="s">
+      <c r="B250" s="142" t="s">
         <v>629</v>
       </c>
-      <c r="C250" s="140" t="s">
+      <c r="C250" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="D250" s="138" t="s">
+      <c r="D250" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E250" s="141" t="s">
+      <c r="E250" s="145" t="s">
         <v>630</v>
       </c>
-      <c r="F250" s="138" t="s">
+      <c r="F250" s="142" t="s">
         <v>557</v>
       </c>
-      <c r="G250" s="141" t="s">
+      <c r="G250" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="H250" s="139" t="s">
+      <c r="H250" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I250" s="141" t="s">
+      <c r="I250" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J250" s="121" t="s">
@@ -23285,31 +23287,31 @@
       </c>
     </row>
     <row r="251" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A251" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C251" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D251" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E251" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F251" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G251" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H251" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I251" s="140" t="s">
+      <c r="A251" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B251" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C251" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D251" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E251" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G251" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H251" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I251" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J251" s="121" t="s">
@@ -23347,31 +23349,31 @@
       </c>
     </row>
     <row r="252" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A252" s="136" t="s">
+      <c r="A252" s="140" t="s">
         <v>631</v>
       </c>
-      <c r="B252" s="138" t="s">
+      <c r="B252" s="142" t="s">
         <v>632</v>
       </c>
-      <c r="C252" s="140" t="s">
+      <c r="C252" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D252" s="138" t="s">
+      <c r="D252" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E252" s="141" t="s">
+      <c r="E252" s="145" t="s">
         <v>633</v>
       </c>
-      <c r="F252" s="138" t="s">
+      <c r="F252" s="142" t="s">
         <v>557</v>
       </c>
-      <c r="G252" s="141" t="s">
+      <c r="G252" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="H252" s="139" t="s">
+      <c r="H252" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I252" s="141" t="s">
+      <c r="I252" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J252" s="121" t="s">
@@ -23409,31 +23411,31 @@
       </c>
     </row>
     <row r="253" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A253" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B253" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C253" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D253" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E253" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F253" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G253" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H253" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I253" s="140" t="s">
+      <c r="A253" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C253" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G253" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H253" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J253" s="121" t="s">
@@ -23471,31 +23473,31 @@
       </c>
     </row>
     <row r="254" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A254" s="136" t="s">
+      <c r="A254" s="140" t="s">
         <v>634</v>
       </c>
-      <c r="B254" s="138" t="s">
+      <c r="B254" s="142" t="s">
         <v>635</v>
       </c>
-      <c r="C254" s="140" t="s">
+      <c r="C254" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="D254" s="138" t="s">
+      <c r="D254" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E254" s="141" t="s">
+      <c r="E254" s="145" t="s">
         <v>636</v>
       </c>
-      <c r="F254" s="138" t="s">
+      <c r="F254" s="142" t="s">
         <v>557</v>
       </c>
-      <c r="G254" s="141" t="s">
+      <c r="G254" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="H254" s="139" t="s">
+      <c r="H254" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I254" s="141" t="s">
+      <c r="I254" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J254" s="121" t="s">
@@ -23533,31 +23535,31 @@
       </c>
     </row>
     <row r="255" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A255" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B255" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C255" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D255" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E255" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F255" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G255" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H255" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I255" s="140" t="s">
+      <c r="A255" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F255" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G255" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H255" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I255" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J255" s="121" t="s">
@@ -23657,31 +23659,31 @@
       </c>
     </row>
     <row r="257" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A257" s="136" t="s">
+      <c r="A257" s="140" t="s">
         <v>639</v>
       </c>
-      <c r="B257" s="138" t="s">
+      <c r="B257" s="142" t="s">
         <v>640</v>
       </c>
-      <c r="C257" s="140" t="s">
+      <c r="C257" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D257" s="138" t="s">
+      <c r="D257" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="E257" s="141" t="s">
+      <c r="E257" s="145" t="s">
         <v>641</v>
       </c>
-      <c r="F257" s="138" t="s">
+      <c r="F257" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="G257" s="141" t="s">
+      <c r="G257" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="H257" s="139" t="s">
+      <c r="H257" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I257" s="141" t="s">
+      <c r="I257" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J257" s="121" t="s">
@@ -23719,29 +23721,29 @@
       </c>
     </row>
     <row r="258" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A258" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B258" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C258" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D258" s="138"/>
-      <c r="E258" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F258" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G258" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H258" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I258" s="140" t="s">
+      <c r="A258" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B258" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C258" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D258" s="142"/>
+      <c r="E258" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F258" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G258" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H258" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I258" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J258" s="121" t="s">
@@ -23779,31 +23781,31 @@
       </c>
     </row>
     <row r="259" spans="1:20" s="113" customFormat="1">
-      <c r="A259" s="137" t="s">
+      <c r="A259" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="B259" s="138" t="s">
+      <c r="B259" s="142" t="s">
         <v>642</v>
       </c>
-      <c r="C259" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="D259" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="E259" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="F259" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G259" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="H259" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I259" s="138" t="s">
+      <c r="C259" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D259" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F259" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G259" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H259" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I259" s="142" t="s">
         <v>103</v>
       </c>
       <c r="J259" s="121" t="s">
@@ -23841,31 +23843,31 @@
       </c>
     </row>
     <row r="260" spans="1:20" s="113" customFormat="1">
-      <c r="A260" s="137" t="s">
-        <v>34</v>
-      </c>
-      <c r="B260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="C260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="D260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="E260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="F260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="H260" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I260" s="139" t="s">
+      <c r="A260" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="F260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H260" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I260" s="143" t="s">
         <v>34</v>
       </c>
       <c r="J260" s="121" t="s">
@@ -24104,16 +24106,16 @@
       <c r="E264" s="120" t="s">
         <v>654</v>
       </c>
-      <c r="F264" s="138" t="s">
+      <c r="F264" s="142" t="s">
         <v>417</v>
       </c>
       <c r="G264" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H264" s="139" t="s">
+      <c r="H264" s="143" t="s">
         <v>418</v>
       </c>
-      <c r="I264" s="141" t="s">
+      <c r="I264" s="145" t="s">
         <v>655</v>
       </c>
       <c r="J264" s="121" t="s">
@@ -24166,16 +24168,16 @@
       <c r="E265" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="F265" s="139" t="s">
+      <c r="F265" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G265" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H265" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I265" s="140" t="s">
+      <c r="H265" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J265" s="121" t="s">
@@ -24476,16 +24478,16 @@
       <c r="E270" s="120" t="s">
         <v>669</v>
       </c>
-      <c r="F270" s="138" t="s">
+      <c r="F270" s="142" t="s">
         <v>542</v>
       </c>
       <c r="G270" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H270" s="139" t="s">
+      <c r="H270" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="I270" s="141" t="s">
+      <c r="I270" s="145" t="s">
         <v>371</v>
       </c>
       <c r="J270" s="121" t="s">
@@ -24538,16 +24540,16 @@
       <c r="E271" s="120" t="s">
         <v>672</v>
       </c>
-      <c r="F271" s="139" t="s">
+      <c r="F271" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G271" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H271" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I271" s="140" t="s">
+      <c r="H271" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I271" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J271" s="121" t="s">
@@ -24733,7 +24735,7 @@
       <c r="H274" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="I274" s="141" t="s">
+      <c r="I274" s="145" t="s">
         <v>681</v>
       </c>
       <c r="J274" s="121" t="s">
@@ -24795,7 +24797,7 @@
       <c r="H275" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I275" s="140" t="s">
+      <c r="I275" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J275" s="121" t="s">
@@ -24857,7 +24859,7 @@
       <c r="H276" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="I276" s="140" t="s">
+      <c r="I276" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J276" s="121" t="s">
@@ -24957,31 +24959,31 @@
       </c>
     </row>
     <row r="278" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A278" s="136" t="s">
+      <c r="A278" s="140" t="s">
         <v>694</v>
       </c>
-      <c r="B278" s="138" t="s">
+      <c r="B278" s="142" t="s">
         <v>695</v>
       </c>
-      <c r="C278" s="140" t="s">
+      <c r="C278" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D278" s="138" t="s">
+      <c r="D278" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E278" s="141" t="s">
+      <c r="E278" s="145" t="s">
         <v>696</v>
       </c>
-      <c r="F278" s="138" t="s">
+      <c r="F278" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="G278" s="141" t="s">
+      <c r="G278" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H278" s="139" t="s">
+      <c r="H278" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I278" s="141" t="s">
+      <c r="I278" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J278" s="121" t="s">
@@ -25019,31 +25021,31 @@
       </c>
     </row>
     <row r="279" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A279" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B279" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C279" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D279" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E279" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F279" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G279" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H279" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I279" s="140" t="s">
+      <c r="A279" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C279" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E279" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F279" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G279" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H279" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I279" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J279" s="121" t="s">
@@ -26150,16 +26152,16 @@
       <c r="E297" s="120" t="s">
         <v>738</v>
       </c>
-      <c r="F297" s="138" t="s">
+      <c r="F297" s="142" t="s">
         <v>360</v>
       </c>
       <c r="G297" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="H297" s="139" t="s">
+      <c r="H297" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="I297" s="141" t="s">
+      <c r="I297" s="145" t="s">
         <v>371</v>
       </c>
       <c r="J297" s="121" t="s">
@@ -26212,16 +26214,16 @@
       <c r="E298" s="120" t="s">
         <v>741</v>
       </c>
-      <c r="F298" s="139" t="s">
+      <c r="F298" s="143" t="s">
         <v>34</v>
       </c>
       <c r="G298" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="H298" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I298" s="140" t="s">
+      <c r="H298" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I298" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J298" s="121" t="s">
@@ -26321,31 +26323,31 @@
       </c>
     </row>
     <row r="300" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A300" s="136" t="s">
+      <c r="A300" s="140" t="s">
         <v>743</v>
       </c>
-      <c r="B300" s="138" t="s">
+      <c r="B300" s="142" t="s">
         <v>744</v>
       </c>
-      <c r="C300" s="140" t="s">
+      <c r="C300" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D300" s="138" t="s">
+      <c r="D300" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E300" s="141" t="s">
+      <c r="E300" s="145" t="s">
         <v>745</v>
       </c>
-      <c r="F300" s="138" t="s">
+      <c r="F300" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="G300" s="141" t="s">
+      <c r="G300" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H300" s="139" t="s">
+      <c r="H300" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I300" s="141" t="s">
+      <c r="I300" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J300" s="121" t="s">
@@ -26383,31 +26385,31 @@
       </c>
     </row>
     <row r="301" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A301" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B301" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C301" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D301" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E301" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F301" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G301" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H301" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I301" s="140" t="s">
+      <c r="A301" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B301" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C301" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D301" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E301" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G301" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H301" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I301" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J301" s="121" t="s">
@@ -27623,31 +27625,31 @@
       </c>
     </row>
     <row r="321" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A321" s="136" t="s">
+      <c r="A321" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="B321" s="138" t="s">
+      <c r="B321" s="142" t="s">
         <v>800</v>
       </c>
-      <c r="C321" s="140" t="s">
+      <c r="C321" s="144" t="s">
         <v>801</v>
       </c>
-      <c r="D321" s="138" t="s">
+      <c r="D321" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="E321" s="141" t="s">
+      <c r="E321" s="145" t="s">
         <v>802</v>
       </c>
-      <c r="F321" s="138" t="s">
+      <c r="F321" s="142" t="s">
         <v>335</v>
       </c>
-      <c r="G321" s="141" t="s">
+      <c r="G321" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="H321" s="139" t="s">
+      <c r="H321" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I321" s="141" t="s">
+      <c r="I321" s="145" t="s">
         <v>803</v>
       </c>
       <c r="J321" s="121" t="s">
@@ -27685,31 +27687,31 @@
       </c>
     </row>
     <row r="322" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A322" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B322" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C322" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D322" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E322" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F322" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G322" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H322" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I322" s="140" t="s">
+      <c r="A322" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B322" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C322" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D322" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E322" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F322" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H322" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I322" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J322" s="121" t="s">
@@ -27747,31 +27749,31 @@
       </c>
     </row>
     <row r="323" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A323" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B323" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C323" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D323" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E323" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F323" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G323" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H323" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I323" s="140" t="s">
+      <c r="A323" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B323" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C323" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D323" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E323" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F323" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G323" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H323" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I323" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J323" s="121" t="s">
@@ -27809,31 +27811,31 @@
       </c>
     </row>
     <row r="324" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A324" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B324" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C324" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D324" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E324" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F324" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G324" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H324" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I324" s="140" t="s">
+      <c r="A324" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B324" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C324" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D324" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E324" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F324" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H324" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I324" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J324" s="121" t="s">
@@ -27957,7 +27959,7 @@
       <c r="H326" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="I326" s="141" t="s">
+      <c r="I326" s="145" t="s">
         <v>812</v>
       </c>
       <c r="J326" s="121" t="s">
@@ -28019,7 +28021,7 @@
       <c r="H327" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I327" s="140" t="s">
+      <c r="I327" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J327" s="121" t="s">
@@ -28081,7 +28083,7 @@
       <c r="H328" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="I328" s="140" t="s">
+      <c r="I328" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J328" s="121" t="s">
@@ -28243,31 +28245,31 @@
       </c>
     </row>
     <row r="331" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A331" s="136" t="s">
+      <c r="A331" s="140" t="s">
         <v>824</v>
       </c>
-      <c r="B331" s="138" t="s">
+      <c r="B331" s="142" t="s">
         <v>825</v>
       </c>
-      <c r="C331" s="140" t="s">
+      <c r="C331" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D331" s="138" t="s">
+      <c r="D331" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="E331" s="141" t="s">
+      <c r="E331" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F331" s="138" t="s">
+      <c r="F331" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="G331" s="141" t="s">
+      <c r="G331" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="H331" s="139" t="s">
+      <c r="H331" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="I331" s="141" t="s">
+      <c r="I331" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J331" s="121" t="s">
@@ -28305,31 +28307,31 @@
       </c>
     </row>
     <row r="332" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A332" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B332" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C332" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D332" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E332" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F332" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G332" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H332" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I332" s="140" t="s">
+      <c r="A332" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B332" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C332" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D332" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E332" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F332" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G332" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H332" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I332" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J332" s="121" t="s">
@@ -28367,31 +28369,31 @@
       </c>
     </row>
     <row r="333" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A333" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B333" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C333" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D333" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E333" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F333" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G333" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H333" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I333" s="140" t="s">
+      <c r="A333" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B333" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C333" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D333" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E333" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F333" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G333" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H333" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I333" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J333" s="121" t="s">
@@ -28429,31 +28431,31 @@
       </c>
     </row>
     <row r="334" spans="1:20" s="114" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A334" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B334" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C334" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D334" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E334" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F334" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G334" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H334" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I334" s="140" t="s">
+      <c r="A334" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B334" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C334" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D334" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E334" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F334" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G334" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H334" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I334" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J334" s="121" t="s">
@@ -28677,31 +28679,31 @@
       </c>
     </row>
     <row r="338" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A338" s="136" t="s">
+      <c r="A338" s="140" t="s">
         <v>830</v>
       </c>
-      <c r="B338" s="138" t="s">
+      <c r="B338" s="142" t="s">
         <v>831</v>
       </c>
-      <c r="C338" s="140" t="s">
+      <c r="C338" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D338" s="138" t="s">
+      <c r="D338" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E338" s="141" t="s">
+      <c r="E338" s="145" t="s">
         <v>832</v>
       </c>
-      <c r="F338" s="138" t="s">
+      <c r="F338" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G338" s="141" t="s">
+      <c r="G338" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H338" s="139" t="s">
+      <c r="H338" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I338" s="141" t="s">
+      <c r="I338" s="145" t="s">
         <v>103</v>
       </c>
       <c r="J338" s="121" t="s">
@@ -28739,31 +28741,31 @@
       </c>
     </row>
     <row r="339" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A339" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B339" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C339" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D339" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E339" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F339" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G339" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H339" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I339" s="140" t="s">
+      <c r="A339" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B339" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C339" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D339" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E339" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F339" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G339" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H339" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I339" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J339" s="121" t="s">
@@ -28801,31 +28803,31 @@
       </c>
     </row>
     <row r="340" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A340" s="136" t="s">
+      <c r="A340" s="140" t="s">
         <v>833</v>
       </c>
-      <c r="B340" s="138" t="s">
+      <c r="B340" s="142" t="s">
         <v>834</v>
       </c>
-      <c r="C340" s="140" t="s">
+      <c r="C340" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D340" s="138" t="s">
+      <c r="D340" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="E340" s="141" t="s">
+      <c r="E340" s="145" t="s">
         <v>835</v>
       </c>
-      <c r="F340" s="138" t="s">
+      <c r="F340" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="G340" s="141" t="s">
+      <c r="G340" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="H340" s="139" t="s">
+      <c r="H340" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="I340" s="141" t="s">
+      <c r="I340" s="145" t="s">
         <v>442</v>
       </c>
       <c r="J340" s="121" t="s">
@@ -28863,31 +28865,31 @@
       </c>
     </row>
     <row r="341" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A341" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B341" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C341" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="D341" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="E341" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="F341" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="G341" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H341" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="I341" s="140" t="s">
+      <c r="A341" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B341" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C341" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E341" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F341" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G341" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H341" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I341" s="144" t="s">
         <v>34</v>
       </c>
       <c r="J341" s="121" t="s">
@@ -30864,20 +30866,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="42" customHeight="1">
-      <c r="A1" s="146" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="A1" s="150" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -30885,35 +30887,35 @@
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1451</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>1452</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>1453</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1455</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>1456</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>1457</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>1458</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>1460</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>6</v>
@@ -30928,18 +30930,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="13" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>800</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="15" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -30956,18 +30958,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="13" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>825</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="15" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -30984,10 +30986,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>272</v>
@@ -30997,7 +30999,7 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="15" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -31014,10 +31016,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>167</v>
@@ -31027,7 +31029,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="15" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -31044,7 +31046,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>181</v>
@@ -31058,8 +31060,8 @@
       <c r="F7" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G7" s="149" t="s">
-        <v>1469</v>
+      <c r="G7" s="153" t="s">
+        <v>1467</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -31076,7 +31078,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>181</v>
@@ -31090,7 +31092,7 @@
       <c r="F8" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G8" s="150"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -31106,7 +31108,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>181</v>
@@ -31120,7 +31122,7 @@
       <c r="F9" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G9" s="150"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -31136,7 +31138,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>181</v>
@@ -31150,7 +31152,7 @@
       <c r="F10" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G10" s="150"/>
+      <c r="G10" s="154"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -31166,7 +31168,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>181</v>
@@ -31180,7 +31182,7 @@
       <c r="F11" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G11" s="150"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -31196,7 +31198,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>181</v>
@@ -31210,7 +31212,7 @@
       <c r="F12" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -31226,70 +31228,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="154" t="s">
+      <c r="E13" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="155"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="13" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
     </row>
     <row r="14" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="154" t="s">
+      <c r="E14" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="13" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>553</v>
@@ -31297,19 +31299,19 @@
       <c r="E15" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="F15" s="154"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="13" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="12"/>
@@ -31548,8 +31550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4386712A-F140-43DE-A469-450B32843B0D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31559,7 +31561,7 @@
         <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -31567,7 +31569,7 @@
         <v>486</v>
       </c>
       <c r="B2" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31575,7 +31577,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -31605,209 +31607,209 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.7" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>1482</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="156" t="s">
         <v>1488</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="156" t="s">
         <v>1489</v>
-      </c>
-      <c r="G3" s="152" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H3" s="152" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1494</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G4" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="152" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G4" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="156" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G5" s="156" t="s">
         <v>1496</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="156" t="s">
         <v>1489</v>
-      </c>
-      <c r="G5" s="152" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1501</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G6" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="152" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="156" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G7" s="156" t="s">
         <v>1504</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="156" t="s">
         <v>1489</v>
-      </c>
-      <c r="G7" s="152" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H7" s="152" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>1507</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1509</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G8" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="152" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G8" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="156" t="s">
         <v>34</v>
       </c>
     </row>
@@ -31816,25 +31818,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G9" s="156" t="s">
         <v>1510</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="156" t="s">
         <v>1489</v>
-      </c>
-      <c r="G9" s="152" t="s">
-        <v>1512</v>
-      </c>
-      <c r="H9" s="152" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
@@ -31842,389 +31844,389 @@
         <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G10" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="152" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G10" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="156" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>1518</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>1522</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.95" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.95" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>1537</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>1545</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>1550</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D19" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1559</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1562</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>1564</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>1566</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>1568</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>1575</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="10.9" customHeight="1">
@@ -32447,7 +32449,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="F3" s="47" t="s">
         <v>895</v>
@@ -33022,7 +33024,7 @@
         <v>116</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>54</v>
@@ -33138,7 +33140,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="37" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="136" t="s">
         <v>272</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -34209,7 +34211,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -36788,7 +36790,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37183,7 +37185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -37284,18 +37286,18 @@
       <c r="H2" s="65"/>
       <c r="I2" s="66"/>
       <c r="J2" s="65"/>
-      <c r="K2" s="142" t="s">
+      <c r="K2" s="146" t="s">
         <v>1101</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="142" t="s">
+      <c r="L2" s="147"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="146" t="s">
         <v>1102</v>
       </c>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
       <c r="S2" s="81"/>
       <c r="T2" s="82"/>
     </row>
@@ -38215,32 +38217,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="73" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="73" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="73" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="73" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="73" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="73" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="73" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="73" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="10" style="73" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="73" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="73" customWidth="1"/>
-    <col min="15" max="16" width="12.625" style="73" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="73"/>
+    <col min="1" max="1" width="8.625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="73"/>
+    <col min="3" max="3" width="9.625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="73"/>
+    <col min="6" max="6" width="10.5" style="73" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="73" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="73" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="73" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="73" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="73" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="20.375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:16" s="37" customFormat="1" ht="30">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -38290,7 +38293,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A2" s="25" t="s">
         <v>127</v>
       </c>
@@ -38319,7 +38322,7 @@
         <v>1120</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>1121</v>
+        <v>1579</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>1122</v>
@@ -38337,10 +38340,10 @@
         <v>54</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -38368,8 +38371,8 @@
       <c r="I3" s="31" t="s">
         <v>1127</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>1121</v>
+      <c r="J3" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>157</v>
@@ -38386,11 +38389,11 @@
       <c r="O3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P3" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A4" s="29" t="s">
         <v>161</v>
       </c>
@@ -38418,8 +38421,8 @@
       <c r="I4" s="31" t="s">
         <v>1130</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>1121</v>
+      <c r="J4" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>1122</v>
@@ -38436,11 +38439,11 @@
       <c r="O4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P4" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A5" s="29" t="s">
         <v>171</v>
       </c>
@@ -38468,8 +38471,8 @@
       <c r="I5" s="31" t="s">
         <v>1133</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>1121</v>
+      <c r="J5" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>1122</v>
@@ -38486,11 +38489,11 @@
       <c r="O5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A6" s="29" t="s">
         <v>173</v>
       </c>
@@ -38518,8 +38521,8 @@
       <c r="I6" s="31" t="s">
         <v>1136</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>1121</v>
+      <c r="J6" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>31</v>
@@ -38536,11 +38539,11 @@
       <c r="O6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P6" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A7" s="29" t="s">
         <v>190</v>
       </c>
@@ -38568,8 +38571,8 @@
       <c r="I7" s="31" t="s">
         <v>1140</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>1121</v>
+      <c r="J7" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>31</v>
@@ -38586,11 +38589,11 @@
       <c r="O7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P7" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A8" s="29" t="s">
         <v>197</v>
       </c>
@@ -38618,8 +38621,8 @@
       <c r="I8" s="31" t="s">
         <v>1144</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>1121</v>
+      <c r="J8" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>1122</v>
@@ -38636,11 +38639,11 @@
       <c r="O8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A9" s="29" t="s">
         <v>205</v>
       </c>
@@ -38668,8 +38671,8 @@
       <c r="I9" s="31" t="s">
         <v>1148</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>1121</v>
+      <c r="J9" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>1122</v>
@@ -38686,11 +38689,11 @@
       <c r="O9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P9" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A10" s="29" t="s">
         <v>208</v>
       </c>
@@ -38718,8 +38721,8 @@
       <c r="I10" s="31" t="s">
         <v>1151</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>1121</v>
+      <c r="J10" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>31</v>
@@ -38736,11 +38739,11 @@
       <c r="O10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="P10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A11" s="29" t="s">
         <v>254</v>
       </c>
@@ -38768,8 +38771,8 @@
       <c r="I11" s="31" t="s">
         <v>1153</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>1121</v>
+      <c r="J11" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>31</v>
@@ -38786,11 +38789,11 @@
       <c r="O11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="P11" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="37" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>258</v>
       </c>
@@ -38818,8 +38821,8 @@
       <c r="I12" s="31" t="s">
         <v>1156</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>1121</v>
+      <c r="J12" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>1122</v>
@@ -38836,11 +38839,11 @@
       <c r="O12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A13" s="29" t="s">
         <v>295</v>
       </c>
@@ -38868,8 +38871,8 @@
       <c r="I13" s="31" t="s">
         <v>1159</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>1121</v>
+      <c r="J13" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>1122</v>
@@ -38886,11 +38889,11 @@
       <c r="O13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A14" s="29" t="s">
         <v>298</v>
       </c>
@@ -38918,8 +38921,8 @@
       <c r="I14" s="31" t="s">
         <v>1163</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>1121</v>
+      <c r="J14" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>31</v>
@@ -38936,11 +38939,11 @@
       <c r="O14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A15" s="29" t="s">
         <v>301</v>
       </c>
@@ -38968,8 +38971,8 @@
       <c r="I15" s="31" t="s">
         <v>1166</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>1121</v>
+      <c r="J15" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>1122</v>
@@ -38986,11 +38989,11 @@
       <c r="O15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A16" s="29" t="s">
         <v>338</v>
       </c>
@@ -39018,8 +39021,8 @@
       <c r="I16" s="31" t="s">
         <v>1169</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>1121</v>
+      <c r="J16" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>31</v>
@@ -39036,11 +39039,11 @@
       <c r="O16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A17" s="29" t="s">
         <v>842</v>
       </c>
@@ -39068,8 +39071,8 @@
       <c r="I17" s="31" t="s">
         <v>1171</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>1121</v>
+      <c r="J17" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>1122</v>
@@ -39086,11 +39089,11 @@
       <c r="O17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A18" s="29" t="s">
         <v>844</v>
       </c>
@@ -39118,8 +39121,8 @@
       <c r="I18" s="31" t="s">
         <v>1173</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>1121</v>
+      <c r="J18" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>31</v>
@@ -39136,11 +39139,11 @@
       <c r="O18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A19" s="29" t="s">
         <v>858</v>
       </c>
@@ -39168,8 +39171,8 @@
       <c r="I19" s="31" t="s">
         <v>1177</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>1121</v>
+      <c r="J19" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>1122</v>
@@ -39186,11 +39189,11 @@
       <c r="O19" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A20" s="29" t="s">
         <v>861</v>
       </c>
@@ -39218,8 +39221,8 @@
       <c r="I20" s="31" t="s">
         <v>1180</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>1121</v>
+      <c r="J20" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>31</v>
@@ -39236,11 +39239,11 @@
       <c r="O20" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A21" s="29" t="s">
         <v>862</v>
       </c>
@@ -39268,8 +39271,8 @@
       <c r="I21" s="31" t="s">
         <v>1183</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>1121</v>
+      <c r="J21" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>1122</v>
@@ -39286,11 +39289,11 @@
       <c r="O21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A22" s="29" t="s">
         <v>35</v>
       </c>
@@ -39318,8 +39321,8 @@
       <c r="I22" s="31" t="s">
         <v>1186</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>1121</v>
+      <c r="J22" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>31</v>
@@ -39336,11 +39339,11 @@
       <c r="O22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A23" s="29" t="s">
         <v>836</v>
       </c>
@@ -39368,8 +39371,8 @@
       <c r="I23" s="31" t="s">
         <v>1190</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>1121</v>
+      <c r="J23" s="26" t="s">
+        <v>1579</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>157</v>
@@ -39386,11 +39389,11 @@
       <c r="O23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
@@ -39419,7 +39422,7 @@
         <v>1193</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>1194</v>
+        <v>1580</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>1122</v>
@@ -39436,11 +39439,11 @@
       <c r="O24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A25" s="29" t="s">
         <v>76</v>
       </c>
@@ -39460,16 +39463,16 @@
         <v>961</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>1197</v>
+        <v>1581</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>31</v>
@@ -39486,11 +39489,11 @@
       <c r="O25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="26" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A26" s="29" t="s">
         <v>79</v>
       </c>
@@ -39510,16 +39513,16 @@
         <v>980</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>1122</v>
@@ -39536,11 +39539,11 @@
       <c r="O26" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A27" s="29" t="s">
         <v>81</v>
       </c>
@@ -39560,16 +39563,16 @@
         <v>962</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>31</v>
@@ -39586,11 +39589,11 @@
       <c r="O27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
@@ -39610,16 +39613,16 @@
         <v>958</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>1122</v>
@@ -39636,11 +39639,11 @@
       <c r="O28" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A29" s="29" t="s">
         <v>341</v>
       </c>
@@ -39660,16 +39663,16 @@
         <v>31</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>1122</v>
@@ -39686,11 +39689,11 @@
       <c r="O29" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A30" s="29" t="s">
         <v>346</v>
       </c>
@@ -39710,16 +39713,16 @@
         <v>54</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>31</v>
@@ -39736,11 +39739,11 @@
       <c r="O30" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A31" s="29" t="s">
         <v>393</v>
       </c>
@@ -39760,16 +39763,16 @@
         <v>895</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K31" s="31" t="s">
         <v>1122</v>
@@ -39786,11 +39789,11 @@
       <c r="O31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="32" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A32" s="29" t="s">
         <v>396</v>
       </c>
@@ -39810,16 +39813,16 @@
         <v>965</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K32" s="31" t="s">
         <v>31</v>
@@ -39836,11 +39839,11 @@
       <c r="O32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="37" customFormat="1" ht="35.1" customHeight="1">
+    <row r="33" spans="1:16" s="37" customFormat="1" ht="49.5">
       <c r="A33" s="29" t="s">
         <v>398</v>
       </c>
@@ -39866,10 +39869,10 @@
         <v>1192</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>1122</v>
@@ -39886,11 +39889,11 @@
       <c r="O33" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="32" t="s">
+      <c r="P33" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="34" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A34" s="29" t="s">
         <v>401</v>
       </c>
@@ -39916,10 +39919,10 @@
         <v>1192</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>31</v>
@@ -39936,11 +39939,11 @@
       <c r="O34" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="37" customFormat="1" ht="35.1" customHeight="1">
+    <row r="35" spans="1:16" s="37" customFormat="1" ht="49.5">
       <c r="A35" s="29" t="s">
         <v>548</v>
       </c>
@@ -39960,16 +39963,16 @@
         <v>948</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>31</v>
@@ -39986,11 +39989,11 @@
       <c r="O35" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="32" t="s">
+      <c r="P35" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="36" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A36" s="29" t="s">
         <v>596</v>
       </c>
@@ -40010,16 +40013,16 @@
         <v>937</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>1122</v>
@@ -40036,11 +40039,11 @@
       <c r="O36" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="32" t="s">
+      <c r="P36" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="37" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A37" s="29" t="s">
         <v>599</v>
       </c>
@@ -40057,19 +40060,19 @@
         <v>25</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H37" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>31</v>
@@ -40086,11 +40089,11 @@
       <c r="O37" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P37" s="32" t="s">
+      <c r="P37" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="38" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A38" s="29" t="s">
         <v>605</v>
       </c>
@@ -40110,16 +40113,16 @@
         <v>929</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K38" s="31" t="s">
         <v>31</v>
@@ -40136,11 +40139,11 @@
       <c r="O38" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="39" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A39" s="29" t="s">
         <v>608</v>
       </c>
@@ -40160,16 +40163,16 @@
         <v>918</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H39" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>1122</v>
@@ -40186,11 +40189,11 @@
       <c r="O39" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P39" s="32" t="s">
+      <c r="P39" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="40" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A40" s="29" t="s">
         <v>625</v>
       </c>
@@ -40201,7 +40204,7 @@
         <v>163</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>194</v>
@@ -40210,16 +40213,16 @@
         <v>969</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H40" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="K40" s="31" t="s">
         <v>31</v>
@@ -40236,11 +40239,11 @@
       <c r="O40" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="41" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A41" s="29" t="s">
         <v>645</v>
       </c>
@@ -40260,16 +40263,16 @@
         <v>941</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H41" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J41" s="30" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K41" s="31" t="s">
         <v>1122</v>
@@ -40286,11 +40289,11 @@
       <c r="O41" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P41" s="32" t="s">
+      <c r="P41" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="42" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A42" s="29" t="s">
         <v>660</v>
       </c>
@@ -40310,16 +40313,16 @@
         <v>925</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H42" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>1122</v>
@@ -40336,11 +40339,11 @@
       <c r="O42" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P42" s="32" t="s">
+      <c r="P42" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="43" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A43" s="29" t="s">
         <v>674</v>
       </c>
@@ -40366,10 +40369,10 @@
         <v>1192</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="J43" s="30" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="K43" s="31" t="s">
         <v>1122</v>
@@ -40386,11 +40389,11 @@
       <c r="O43" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P43" s="32" t="s">
+      <c r="P43" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="44" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A44" s="29" t="s">
         <v>692</v>
       </c>
@@ -40410,16 +40413,16 @@
         <v>948</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K44" s="31" t="s">
         <v>1122</v>
@@ -40436,11 +40439,11 @@
       <c r="O44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P44" s="32" t="s">
+      <c r="P44" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="45" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A45" s="29" t="s">
         <v>706</v>
       </c>
@@ -40466,10 +40469,10 @@
         <v>1192</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K45" s="31" t="s">
         <v>1122</v>
@@ -40486,11 +40489,11 @@
       <c r="O45" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P45" s="32" t="s">
+      <c r="P45" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="46" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A46" s="29" t="s">
         <v>707</v>
       </c>
@@ -40510,16 +40513,16 @@
         <v>900</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H46" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K46" s="31" t="s">
         <v>31</v>
@@ -40536,11 +40539,11 @@
       <c r="O46" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="47" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A47" s="29" t="s">
         <v>710</v>
       </c>
@@ -40560,16 +40563,16 @@
         <v>903</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I47" s="31" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="K47" s="31" t="s">
         <v>1122</v>
@@ -40586,11 +40589,11 @@
       <c r="O47" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="48" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A48" s="29" t="s">
         <v>713</v>
       </c>
@@ -40610,16 +40613,16 @@
         <v>930</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H48" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="K48" s="31" t="s">
         <v>1122</v>
@@ -40636,11 +40639,11 @@
       <c r="O48" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P48" s="32" t="s">
+      <c r="P48" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="49" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A49" s="29" t="s">
         <v>715</v>
       </c>
@@ -40660,16 +40663,16 @@
         <v>926</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H49" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="K49" s="31" t="s">
         <v>31</v>
@@ -40686,11 +40689,11 @@
       <c r="O49" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P49" s="32" t="s">
+      <c r="P49" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="50" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A50" s="29" t="s">
         <v>717</v>
       </c>
@@ -40716,10 +40719,10 @@
         <v>1192</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J50" s="30" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="K50" s="31" t="s">
         <v>31</v>
@@ -40736,11 +40739,11 @@
       <c r="O50" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P50" s="32" t="s">
+      <c r="P50" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="51" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A51" s="29" t="s">
         <v>545</v>
       </c>
@@ -40766,13 +40769,13 @@
         <v>1192</v>
       </c>
       <c r="I51" s="31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J51" s="30" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K51" s="31" t="s">
         <v>1269</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>1271</v>
       </c>
       <c r="L51" s="30" t="s">
         <v>157</v>
@@ -40786,11 +40789,11 @@
       <c r="O51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P51" s="32" t="s">
+      <c r="P51" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="52" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A52" s="29" t="s">
         <v>551</v>
       </c>
@@ -40816,13 +40819,13 @@
         <v>1192</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="L52" s="30" t="s">
         <v>157</v>
@@ -40836,11 +40839,11 @@
       <c r="O52" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P52" s="32" t="s">
+      <c r="P52" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="53" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A53" s="29" t="s">
         <v>586</v>
       </c>
@@ -40866,13 +40869,13 @@
         <v>1192</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="L53" s="30" t="s">
         <v>157</v>
@@ -40886,11 +40889,11 @@
       <c r="O53" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P53" s="32" t="s">
+      <c r="P53" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="54" spans="1:16" s="37" customFormat="1" ht="33">
       <c r="A54" s="29" t="s">
         <v>749</v>
       </c>
@@ -40907,22 +40910,22 @@
         <v>154</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="L54" s="30" t="s">
         <v>157</v>
@@ -40936,11 +40939,11 @@
       <c r="O54" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P54" s="32" t="s">
+      <c r="P54" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="37" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="55" spans="1:16" s="37" customFormat="1" ht="17.25" thickBot="1">
       <c r="A55" s="33" t="s">
         <v>167</v>
       </c>
@@ -40957,10 +40960,10 @@
       <c r="F55" s="34"/>
       <c r="G55" s="35"/>
       <c r="H55" s="34" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>1121</v>
@@ -40969,15 +40972,16 @@
       <c r="L55" s="34"/>
       <c r="M55" s="35"/>
       <c r="N55" s="34"/>
-      <c r="O55" s="35" t="s">
+      <c r="O55" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="32" t="s">
+      <c r="P55" s="28" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N55" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -40988,7 +40992,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -41034,25 +41038,25 @@
         <v>8</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>983</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>1113</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="N1" s="40" t="s">
         <v>1099</v>
@@ -41061,10 +41065,10 @@
         <v>1100</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>1099</v>
@@ -41088,18 +41092,18 @@
       <c r="I2" s="66"/>
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="147" t="s">
         <v>1101</v>
       </c>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143" t="s">
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147" t="s">
         <v>1102</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="142"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="146"/>
       <c r="T2" s="70"/>
     </row>
     <row r="3" spans="1:20" s="37" customFormat="1" ht="35.1" customHeight="1">
@@ -41122,17 +41126,17 @@
         <v>103</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="47" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L3" s="47" t="s">
         <v>104</v>
@@ -41182,17 +41186,17 @@
         <v>442</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="47" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>104</v>
@@ -41242,17 +41246,17 @@
         <v>103</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I5" s="46"/>
       <c r="J5" s="47" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>104</v>
@@ -41302,17 +41306,17 @@
         <v>442</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="47" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>104</v>
@@ -41362,17 +41366,17 @@
         <v>103</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="47" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="K7" s="46" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>104</v>
@@ -41422,17 +41426,17 @@
         <v>442</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>104</v>
@@ -41482,17 +41486,17 @@
         <v>103</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="47" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>104</v>
@@ -41545,14 +41549,14 @@
         <v>910</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="47" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="L10" s="47" t="s">
         <v>104</v>
@@ -41602,17 +41606,17 @@
         <v>103</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="47" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L11" s="47" t="s">
         <v>104</v>
@@ -41669,10 +41673,10 @@
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="47" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>104</v>
@@ -41722,17 +41726,17 @@
         <v>103</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="47" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="L13" s="47" t="s">
         <v>104</v>
@@ -41785,10 +41789,10 @@
       <c r="H14" s="47"/>
       <c r="I14" s="46"/>
       <c r="J14" s="47" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L14" s="47" t="s">
         <v>104</v>
@@ -41820,7 +41824,7 @@
     </row>
     <row r="15" spans="1:20" s="37" customFormat="1" ht="35.1" customHeight="1">
       <c r="A15" s="67" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>603</v>
@@ -41887,8 +41891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -41935,31 +41939,31 @@
         <v>6</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>1331</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>1333</v>
-      </c>
       <c r="J1" s="40" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>1331</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>1332</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>1333</v>
-      </c>
       <c r="M1" s="40" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>1331</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>1332</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>1333</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>1094</v>
@@ -41981,21 +41985,21 @@
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="148" t="s">
         <v>883</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="144" t="s">
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="148" t="s">
         <v>884</v>
       </c>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="144" t="s">
-        <v>1334</v>
-      </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="148" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="42"/>
@@ -42009,7 +42013,7 @@
         <v>331</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>334</v>
@@ -42040,28 +42044,28 @@
       <c r="N3" s="47"/>
       <c r="O3" s="46"/>
       <c r="P3" s="47" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="R3" s="30" t="s">
         <v>1121</v>
       </c>
       <c r="S3" s="61"/>
     </row>
-    <row r="4" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
+    <row r="4" spans="1:19" s="37" customFormat="1" ht="51" customHeight="1">
       <c r="A4" s="44" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1338</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1340</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>360</v>
@@ -42084,25 +42088,25 @@
         <v>1192</v>
       </c>
       <c r="Q4" s="46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="S4" s="61"/>
+    </row>
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A5" s="44" t="s">
         <v>1341</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>1342</v>
       </c>
-      <c r="S4" s="61"/>
-    </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="C5" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1343</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1345</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>360</v>
@@ -42137,22 +42141,22 @@
         <v>1192</v>
       </c>
       <c r="Q5" s="46" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S5" s="61"/>
+    </row>
+    <row r="6" spans="1:19" s="37" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>1346</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>1347</v>
       </c>
-      <c r="S5" s="61"/>
-    </row>
-    <row r="6" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>1349</v>
-      </c>
       <c r="C6" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>24</v>
@@ -42190,25 +42194,25 @@
         <v>1192</v>
       </c>
       <c r="Q6" s="46" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>1349</v>
+      </c>
+      <c r="S6" s="61"/>
+    </row>
+    <row r="7" spans="1:19" s="37" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>1350</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>1351</v>
       </c>
-      <c r="S6" s="61"/>
-    </row>
-    <row r="7" spans="1:19" s="37" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="C7" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1352</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>1354</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>360</v>
@@ -42243,25 +42247,25 @@
         <v>1192</v>
       </c>
       <c r="Q7" s="46" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>1354</v>
+      </c>
+      <c r="S7" s="61"/>
+    </row>
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="54" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>1355</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>1356</v>
       </c>
-      <c r="S7" s="61"/>
-    </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="C8" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>1357</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1359</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>417</v>
@@ -42296,10 +42300,10 @@
         <v>1192</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="S8" s="61"/>
     </row>
@@ -42311,7 +42315,7 @@
         <v>479</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>480</v>
@@ -42349,28 +42353,28 @@
         <v>1192</v>
       </c>
       <c r="Q9" s="46" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>1361</v>
+      </c>
+      <c r="S9" s="61"/>
+    </row>
+    <row r="10" spans="1:19" s="37" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A10" s="44" t="s">
         <v>1362</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>1363</v>
       </c>
-      <c r="S9" s="61"/>
-    </row>
-    <row r="10" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="C10" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1364</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>1365</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>1367</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>361</v>
@@ -42402,25 +42406,25 @@
         <v>1192</v>
       </c>
       <c r="Q10" s="46" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="S10" s="61"/>
     </row>
     <row r="11" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A11" s="44" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1370</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1372</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>417</v>
@@ -42455,25 +42459,25 @@
         <v>1192</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="S11" s="61"/>
     </row>
     <row r="12" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A12" s="44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>1375</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>1377</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>542</v>
@@ -42508,28 +42512,28 @@
         <v>1192</v>
       </c>
       <c r="Q12" s="46" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="S12" s="61"/>
     </row>
     <row r="13" spans="1:19" s="37" customFormat="1" ht="101.1" customHeight="1">
       <c r="A13" s="44" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1380</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="E13" s="31" t="s">
         <v>1381</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>1383</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>680</v>
@@ -42561,22 +42565,22 @@
         <v>1192</v>
       </c>
       <c r="Q13" s="46" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="S13" s="61"/>
     </row>
     <row r="14" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>738</v>
@@ -42614,28 +42618,28 @@
         <v>1192</v>
       </c>
       <c r="Q14" s="46" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="S14" s="61"/>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" ht="101.1" customHeight="1">
       <c r="A15" s="44" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1390</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="E15" s="31" t="s">
         <v>1391</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>1393</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>811</v>
@@ -42667,10 +42671,10 @@
         <v>1192</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="R15" s="30" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="S15" s="61"/>
     </row>
@@ -42682,7 +42686,7 @@
         <v>822</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>823</v>
@@ -42717,10 +42721,10 @@
         <v>34</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="R16" s="30" t="s">
         <v>1121</v>
@@ -42729,13 +42733,13 @@
     </row>
     <row r="17" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>24</v>
@@ -42773,22 +42777,22 @@
         <v>1192</v>
       </c>
       <c r="Q17" s="46" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>24</v>
@@ -42826,22 +42830,22 @@
         <v>1192</v>
       </c>
       <c r="Q18" s="46" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:19" s="37" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A19" s="44" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>24</v>
@@ -42879,10 +42883,10 @@
         <v>1192</v>
       </c>
       <c r="Q19" s="46" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="S19" s="61"/>
     </row>
@@ -42894,7 +42898,7 @@
         <v>337</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>24</v>
@@ -42941,7 +42945,7 @@
         <v>354</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>24</v>
@@ -42988,7 +42992,7 @@
         <v>356</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>24</v>
@@ -43035,7 +43039,7 @@
         <v>504</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>24</v>
@@ -43104,30 +43108,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>1410</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>1411</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>156</v>
@@ -43142,16 +43146,16 @@
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="29" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>1416</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>1417</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1419</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>34</v>
@@ -43160,16 +43164,16 @@
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="29" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>1420</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>1421</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1423</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>34</v>
@@ -43178,16 +43182,16 @@
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
       <c r="A5" s="29" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1424</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>1425</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1427</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>34</v>
@@ -43196,16 +43200,16 @@
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1">
       <c r="A6" s="29" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>1428</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>1429</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1431</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>34</v>
@@ -43214,16 +43218,16 @@
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
       <c r="A7" s="29" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>1432</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>1434</v>
-      </c>
       <c r="D7" s="30" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>34</v>
@@ -43232,16 +43236,16 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>34</v>
@@ -43250,16 +43254,16 @@
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>34</v>
@@ -43268,16 +43272,16 @@
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
       <c r="A10" s="29" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>1440</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>1441</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1443</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>34</v>
@@ -43286,16 +43290,16 @@
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>34</v>
@@ -43304,16 +43308,16 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1">
       <c r="A12" s="33" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>1446</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="D12" s="34" t="s">
         <v>1447</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>1449</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>34</v>
